--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94CDDB-B431-403E-8216-A4A1EDCD4BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE94AA-5A90-4FB4-8D21-5F0B4B4FC914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Started?</t>
+  </si>
+  <si>
+    <t>how will startup work? can we wait for a signal from main OBC to begin setup?</t>
+  </si>
+  <si>
+    <t>Discussion</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -175,244 +181,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -731,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,25 +679,39 @@
         <v>15</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:C1 B3:C1048576">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1 C3:C1048576">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:B1048576">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",B1)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($C1="Y",$B1="Y")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE94AA-5A90-4FB4-8D21-5F0B4B4FC914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EA0152-19BA-4425-BDCC-B2609E244FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Discussion</t>
+  </si>
+  <si>
+    <t>replace errFlag with an 8 bit (?) binary code where each bit indicates a different error?</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +697,20 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EA0152-19BA-4425-BDCC-B2609E244FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0AB35C-63F4-43B8-B85E-367A0E7E57F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>before going any further, revisit PCB and check all components will fit (RTC seems large!)</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -578,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -592,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -606,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -620,7 +629,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -634,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -711,6 +720,20 @@
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0AB35C-63F4-43B8-B85E-367A0E7E57F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE98E6-7BFA-418E-B23A-4F51FF21B2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>connect CD pin to 7 on PDC with 10k pull-up</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +736,20 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDE98E6-7BFA-418E-B23A-4F51FF21B2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16323D87-B533-40BB-9AFA-64942C34EEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>connect CD pin to 7 on PDC with 10k pull-up</t>
+  </si>
+  <si>
+    <t>does readI2C() return values as expected?</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -751,6 +754,20 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16323D87-B533-40BB-9AFA-64942C34EEDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876CBCE-E303-427F-A401-0DB9C6605C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>does readI2C() return values as expected?</t>
+  </si>
+  <si>
+    <t>refactor IMU reading (i.e. methods like read.gyro.z())</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,6 +771,20 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4876CBCE-E303-427F-A401-0DB9C6605C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0C6B4E-F8E1-4144-92DA-B7F533EFAF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>refactor IMU reading (i.e. methods like read.gyro.z())</t>
+  </si>
+  <si>
+    <t>major main code cleanup (comments, layout, etc.)</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,12 +781,26 @@
         <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0C6B4E-F8E1-4144-92DA-B7F533EFAF1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F1726-1E96-44ED-AC58-06B518931CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>major main code cleanup (comments, layout, etc.)</t>
+  </si>
+  <si>
+    <t>test the clock signal on pin 9 is at the frequency we want it to be at &amp; constant</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,13 +798,27 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F1726-1E96-44ED-AC58-06B518931CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25392A-E79A-4B5B-B23A-4497FCB864B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>test the clock signal on pin 9 is at the frequency we want it to be at &amp; constant</t>
+  </si>
+  <si>
+    <t>does doxygen work for arduino &amp; is it worth doing or nah?</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +822,20 @@
       </c>
       <c r="D20" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A25392A-E79A-4B5B-B23A-4497FCB864B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218A9AD-F082-4A54-A4D8-CF2B6FF33918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>does doxygen work for arduino &amp; is it worth doing or nah?</t>
+  </si>
+  <si>
+    <t>look into magnetometer for attitude determination instead of coarse sun sensing</t>
+  </si>
+  <si>
+    <t>work out how to filter gyro/magnetometer (not EKF, too intensive)</t>
+  </si>
+  <si>
+    <t>look at replacing LPA with single sensor w/ intensity readout (analog?)</t>
   </si>
 </sst>
 </file>
@@ -532,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +844,48 @@
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/PDC/helperFiles/testsAndTodo.xlsx
+++ b/PDC/helperFiles/testsAndTodo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rory\Documents\Uni_and_otherWork\Jobs etc\UoS_SunSat\Avionics-Code-for-Arduino-\PDC\helperFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F218A9AD-F082-4A54-A4D8-CF2B6FF33918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5975B1F-B3B4-433C-999D-AB2433E82B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{A28AD64C-69C9-40DF-90AD-FA585136F58E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
   <si>
     <t>A list of tests and tasks. Some require hardware, some require discussion w/ relevant people</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>look at replacing LPA with single sensor w/ intensity readout (analog?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in accel init, maybe measure noise at different ranges so we can switch mid flight </t>
+  </si>
+  <si>
+    <t>does the altimeter temp/press/alt match the expected values?</t>
+  </si>
+  <si>
+    <t>develop error/status codes that can be written to 'notes' in log file (strings are expensive)</t>
   </si>
 </sst>
 </file>
@@ -541,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF1C8F3-9A76-496E-81FD-ABC3D29924E7}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +763,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -768,7 +777,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -886,6 +895,48 @@
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
